--- a/example_data/EPA/label_corrected/089459-00087-20170127_2018-12-08_204500.xlsx
+++ b/example_data/EPA/label_corrected/089459-00087-20170127_2018-12-08_204500.xlsx
@@ -518,7 +518,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -598,7 +598,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Env warning - species || Application instructions || Pollinator</t>
+          <t>application instructions || env warning - species || pollinator</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -633,7 +633,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>32_Physical_and_Chemical_Hazards</t>
+          <t>32_physical_and_chemical_hazards</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -694,7 +694,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -771,7 +771,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -818,7 +818,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -990,7 +990,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -1888,7 +1888,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
